--- a/QDMarketPlace/wwwroot/export-files/Bill_1.xlsx
+++ b/QDMarketPlace/wwwroot/export-files/Bill_1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sales Order</t>
   </si>
@@ -44,13 +44,13 @@
     <t>SĐT: 0966 026 626</t>
   </si>
   <si>
-    <t>Customer Name: Xuan Duc</t>
-  </si>
-  <si>
-    <t>Address: HCM</t>
-  </si>
-  <si>
-    <t>Phone: 0987654321</t>
+    <t>Customer Name: Quốc Ngọc Quốc</t>
+  </si>
+  <si>
+    <t>Address: Bình Thuận Việt Nam</t>
+  </si>
+  <si>
+    <t>Phone: 0988877176</t>
   </si>
   <si>
     <t>TT</t>
@@ -71,16 +71,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>Product 18</t>
-  </si>
-  <si>
-    <t>1,000</t>
+    <t>Nord VPN Security 1 năm</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Microsoft Visual Studio 2019 Enterprise</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Total amount (by word): một nghìn  đồng chẵn</t>
+    <t>1.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total amount (by word): một nghìn ba trăm  đồng chẵn</t>
   </si>
   <si>
     <t>1, 1, 1</t>
@@ -679,25 +694,30 @@
         <v>12</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <f ref="E10:E23" t="shared" si="0">C10*D10</f>
-        <v>0</v>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
@@ -708,7 +728,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
+        <f ref="E11:E23" t="shared" si="0">C11*D11</f>
         <v>0</v>
       </c>
     </row>
@@ -858,7 +878,7 @@
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="4">
@@ -867,12 +887,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="30.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
@@ -881,18 +901,18 @@
     </row>
     <row r="28" ht="13">
       <c r="C28" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
